--- a/féléves feladat/Mérések2.xlsx
+++ b/féléves feladat/Mérések2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabor/Desktop/egyetem/4.félév/parallel alg/GJ2N7R-Parallel/féléves feladat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0142F2-6080-C540-B05F-C73ECC4C4547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7AB36-A00D-B745-AB4D-722E2EF26C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="14480" xr2:uid="{264A4D05-3AF6-9341-BEC7-D876B5BBB144}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>1 szál</t>
   </si>
@@ -341,18 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,7 +353,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204 404</c:v>
+                  <c:v>204 404 karakter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26137046-D679-CB44-A152-6128678D81E2}">
   <dimension ref="B3:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4149,620 +4149,624 @@
     </row>
     <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="12" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
-        <v>204404</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="11">
         <v>0.36011199999999999</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0.48945699999999998</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>0.56520499999999996</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>0.62260400000000005</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>0.62989600000000001</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>0.63673400000000002</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>0.63402400000000003</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>0.63828300000000004</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>0.65256599999999998</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>0.63369600000000004</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>0.63434900000000005</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>0.63607000000000002</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>0.61879300000000004</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>0.62944199999999995</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>0.66478499999999996</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>0.637355</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>0.64056000000000002</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>0.63767499999999999</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>0.64945799999999998</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>0.65691200000000005</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="40" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="11">
         <v>0.36490099999999998</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>0.36652699999999999</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>0.370807</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>0.37907400000000002</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="7">
         <v>0.37827100000000002</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>0.37964700000000001</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="7">
         <v>0.38289699999999999</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>0.380027</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>0.385766</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>0.37936300000000001</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="7">
         <v>0.37540200000000001</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="7">
         <v>0.37970500000000001</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="7">
         <v>0.376525</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="7">
         <v>0.37675700000000001</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="7">
         <v>0.38004700000000002</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="7">
         <v>0.38033099999999997</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="7">
         <v>0.37753599999999998</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="7">
         <v>0.37724600000000003</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="7">
         <v>0.383573</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="9">
         <v>0.38284499999999999</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="66" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="11">
         <v>0.97099999999999997</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="7">
         <v>1.397</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="7">
         <v>1.873</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="7">
         <v>2.2789999999999999</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="7">
         <v>2.8559999999999999</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="7">
         <v>3.2669999999999999</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="7">
         <v>3.6560000000000001</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="7">
         <v>4.0490000000000004</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="7">
         <v>4.641</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="7">
         <v>5.0369999999999999</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="7">
         <v>5.4809999999999999</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="7">
         <v>5.9909999999999997</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="7">
         <v>6.3840000000000003</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="7">
         <v>7.048</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="7">
         <v>7.4169999999999998</v>
       </c>
-      <c r="D82" s="12"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="7">
         <v>7.8010000000000002</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="7">
         <v>8.3040000000000003</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="7">
         <v>8.8040000000000003</v>
       </c>
-      <c r="D85" s="12"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="7">
         <v>9.3049999999999997</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="8"/>
     </row>
     <row r="87" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="9">
         <v>9.6300000000000008</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -4779,33 +4783,29 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
